--- a/GACourseAndExamSchedule/ScheduleData/Öğretim Görevlileri.xlsx
+++ b/GACourseAndExamSchedule/ScheduleData/Öğretim Görevlileri.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcht6\source\repos\GAExamSchedule\Sample Input Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcht6\source\repos\GACourseAndExamSchedule\GACourseAndExamSchedule\ScheduleData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBFFF8AD-5A0F-48AB-9F33-18A4C2813BD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB996D3-61AA-4FD8-9D26-5106A1FA6C35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="16245" windowHeight="11085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>ID</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Hakan Aydın</t>
   </si>
   <si>
-    <t>Özgür Koray</t>
-  </si>
-  <si>
     <t>Aydın Seçer</t>
   </si>
   <si>
@@ -63,19 +60,10 @@
     <t>Gülsüm Yeliz Şentürk</t>
   </si>
   <si>
-    <t>Seda Yamaç Akbıyık</t>
-  </si>
-  <si>
-    <t>Bedri Yüksel</t>
-  </si>
-  <si>
-    <t>Kenan Büyükatak</t>
-  </si>
-  <si>
     <t>Fatih Koçan</t>
   </si>
   <si>
-    <t>Serap Yeşilkır Baydar</t>
+    <t>Pazartesi, Salı, Çarşamba, Perşembe, Cuma</t>
   </si>
 </sst>
 </file>
@@ -131,8 +119,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AD49C862-2DFD-4C2C-996D-6F9DA830AAA5}" name="Tablo1" displayName="Tablo1" ref="A1:C15" totalsRowShown="0">
-  <autoFilter ref="A1:C15" xr:uid="{AC6E0BAD-E349-4D5B-BF42-6825E5C6868C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AD49C862-2DFD-4C2C-996D-6F9DA830AAA5}" name="Tablo1" displayName="Tablo1" ref="A1:C10" totalsRowShown="0">
+  <autoFilter ref="A1:C10" xr:uid="{AC6E0BAD-E349-4D5B-BF42-6825E5C6868C}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{277AB96E-485E-4FAB-940E-BFB1AEE1ACD2}" name="ID"/>
     <tableColumn id="2" xr3:uid="{72396D9B-F2DF-441F-9CC3-22403820A8A0}" name="İsim"/>
@@ -405,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -422,10 +410,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -433,7 +421,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -441,7 +432,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -449,7 +443,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -457,7 +454,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -465,7 +465,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -473,6 +476,9 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
         <v>12</v>
       </c>
     </row>
@@ -481,7 +487,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -489,7 +498,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -497,47 +509,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>16</v>
+      <c r="C10" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
